--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87ff30d1a8d93bb7/Desktop/folder1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{92F3979D-E1B4-4E2C-B01C-6D00818D4E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DE974F4F-6AC4-4EC5-9FFB-A3791E585831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>stCase Id</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>hkjl</t>
+  </si>
+  <si>
+    <t>ta</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,6 +468,9 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
